--- a/Docs/Latest/2017 JULY.xlsx
+++ b/Docs/Latest/2017 JULY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19416" windowHeight="7692" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19416" windowHeight="7692" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -1284,38 +1284,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1361,10 +1335,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1378,6 +1348,33 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1653,7 +1650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6231,27 +6228,27 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="19"/>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="48"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
     </row>
     <row r="3" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
@@ -6259,15 +6256,15 @@
         <v>134</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="21"/>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="51"/>
+      <c r="I3" s="70"/>
       <c r="K3" s="20"/>
       <c r="L3" s="18" t="s">
         <v>130</v>
@@ -6637,7 +6634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
@@ -7430,186 +7427,186 @@
     <col min="16125" max="16128" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="56" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54" t="s">
+    <row r="1" spans="1:51" s="48" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="55" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AN1" s="57"/>
-      <c r="AT1" s="57"/>
-    </row>
-    <row r="2" spans="1:51" s="56" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AN1" s="49"/>
+      <c r="AT1" s="49"/>
+    </row>
+    <row r="2" spans="1:51" s="48" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="O2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="S2" s="60" t="s">
+      <c r="S2" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="T2" s="61" t="s">
+      <c r="T2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="62" t="s">
+      <c r="U2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="62" t="s">
+      <c r="X2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="62" t="s">
+      <c r="Y2" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="Z2" s="63" t="s">
+      <c r="Z2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="62" t="s">
+      <c r="AA2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="62" t="s">
+      <c r="AB2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="62" t="s">
+      <c r="AC2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="62" t="s">
+      <c r="AD2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="62" t="s">
+      <c r="AE2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="62" t="s">
+      <c r="AF2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="62" t="s">
+      <c r="AG2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="AH2" s="62" t="s">
+      <c r="AH2" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="AI2" s="62" t="s">
+      <c r="AI2" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="AJ2" s="64" t="s">
+      <c r="AJ2" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="AK2" s="64" t="s">
+      <c r="AK2" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="AL2" s="56" t="s">
+      <c r="AL2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="57">
+      <c r="AN2" s="49">
         <v>35000</v>
       </c>
-      <c r="AO2" s="56" t="s">
+      <c r="AO2" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="AQ2" s="56">
+      <c r="AQ2" s="48">
         <v>517130</v>
       </c>
-      <c r="AR2" s="65" t="s">
+      <c r="AR2" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="AT2" s="57">
+      <c r="AT2" s="49">
         <v>5200</v>
       </c>
-      <c r="AV2" s="56" t="s">
+      <c r="AV2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AW2" s="56" t="s">
+      <c r="AW2" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="AY2" s="56">
+      <c r="AY2" s="48">
         <v>220300</v>
       </c>
     </row>
@@ -13896,14 +13893,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="67" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="53" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="59" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="47" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -14662,3672 +14659,3488 @@
     <col min="15692" max="15695" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="56" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="48" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="70" t="s">
+      <c r="N1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="70" t="s">
+      <c r="O1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" s="70" t="s">
+      <c r="Q1" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="R1" s="72" t="s">
+      <c r="R1" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="73">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="73">
+        <v>1440</v>
+      </c>
+      <c r="F2" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H2" s="73">
+        <v>1300</v>
+      </c>
+      <c r="I2" s="73">
         <v>1000</v>
       </c>
-      <c r="E2">
-        <v>480</v>
-      </c>
-      <c r="F2">
-        <v>2000</v>
-      </c>
-      <c r="G2">
-        <v>400</v>
-      </c>
-      <c r="H2">
-        <v>400</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J2" s="73">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="73">
+        <v>4000</v>
+      </c>
+      <c r="D3" s="73">
         <v>3000</v>
       </c>
-      <c r="D3">
-        <v>3000</v>
-      </c>
-      <c r="E3">
-        <v>480</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1200</v>
-      </c>
-      <c r="H3">
+      <c r="E3" s="73">
+        <v>960</v>
+      </c>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H3" s="73">
+        <v>1400</v>
+      </c>
+      <c r="I3" s="73">
+        <v>400</v>
+      </c>
+      <c r="J3" s="73">
         <v>1000</v>
       </c>
-      <c r="I3">
-        <v>2600</v>
-      </c>
-      <c r="J3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="73">
         <v>3000</v>
       </c>
-      <c r="D4">
-        <v>3000</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>4000</v>
-      </c>
-      <c r="G4">
-        <v>1200</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E4" s="73">
+        <v>1440</v>
+      </c>
+      <c r="F4" s="73">
+        <v>6000</v>
+      </c>
+      <c r="G4" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="73">
+        <v>1400</v>
+      </c>
+      <c r="I4" s="73">
+        <v>3400</v>
+      </c>
+      <c r="J4" s="73">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="C5" s="73">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="73">
+        <v>480</v>
+      </c>
+      <c r="F5" s="73">
         <v>4000</v>
       </c>
-      <c r="G5">
-        <v>1200</v>
-      </c>
-      <c r="H5">
-        <v>600</v>
-      </c>
-      <c r="I5">
-        <v>2200</v>
-      </c>
-      <c r="J5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G5" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="73">
+        <v>1400</v>
+      </c>
+      <c r="I5" s="73">
+        <v>2600</v>
+      </c>
+      <c r="J5" s="73">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C6">
-        <v>500</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="73">
         <v>1000</v>
       </c>
-      <c r="E6">
-        <v>480</v>
-      </c>
-      <c r="F6">
-        <v>2000</v>
-      </c>
-      <c r="G6">
-        <v>800</v>
-      </c>
-      <c r="H6">
-        <v>600</v>
-      </c>
-      <c r="I6">
-        <v>400</v>
-      </c>
-      <c r="J6">
+      <c r="D6" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73">
+        <v>3000</v>
+      </c>
+      <c r="G6" s="73">
+        <v>1400</v>
+      </c>
+      <c r="H6" s="73">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="73">
+        <v>1800</v>
+      </c>
+      <c r="J6" s="73">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="73">
+        <v>500</v>
+      </c>
+      <c r="D7" s="73">
         <v>1000</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73">
         <v>1000</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2000</v>
-      </c>
-      <c r="G7">
-        <v>600</v>
-      </c>
-      <c r="H7">
-        <v>400</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G7" s="73"/>
+      <c r="H7" s="73">
+        <v>700</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C8">
-        <v>2000</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="73">
         <v>3000</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>6000</v>
-      </c>
-      <c r="G8">
-        <v>800</v>
-      </c>
-      <c r="H8">
-        <v>1100</v>
-      </c>
-      <c r="I8">
+      <c r="D8" s="73">
         <v>3000</v>
       </c>
-      <c r="J8">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="73"/>
+      <c r="F8" s="73">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="73">
+        <v>2500</v>
+      </c>
+      <c r="H8" s="73">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="73">
+        <v>4000</v>
+      </c>
+      <c r="J8" s="73">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C9">
-        <v>2000</v>
-      </c>
-      <c r="D9">
-        <v>2000</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>4000</v>
-      </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-      <c r="H9">
-        <v>1300</v>
-      </c>
-      <c r="I9">
-        <v>2000</v>
-      </c>
-      <c r="J9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="73">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="73">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H9" s="73">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="73">
+        <v>3400</v>
+      </c>
+      <c r="J9" s="73">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C10">
-        <v>3500</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="73">
         <v>3000</v>
       </c>
-      <c r="E10">
-        <v>960</v>
-      </c>
-      <c r="F10">
-        <v>6000</v>
-      </c>
-      <c r="G10">
-        <v>2000</v>
-      </c>
-      <c r="H10">
-        <v>1600</v>
-      </c>
-      <c r="I10">
-        <v>2800</v>
-      </c>
-      <c r="J10">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E10" s="73"/>
+      <c r="F10" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H10" s="73">
+        <v>2100</v>
+      </c>
+      <c r="I10" s="73">
+        <v>2600</v>
+      </c>
+      <c r="J10" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C11">
-        <v>3000</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="73">
         <v>6000</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>8000</v>
-      </c>
-      <c r="G11">
-        <v>4000</v>
-      </c>
-      <c r="H11">
-        <v>1400</v>
-      </c>
-      <c r="I11">
-        <v>4000</v>
-      </c>
-      <c r="J11">
+      <c r="D11" s="73">
+        <v>9000</v>
+      </c>
+      <c r="E11" s="73">
+        <v>2880</v>
+      </c>
+      <c r="F11" s="73">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="73">
+        <v>7000</v>
+      </c>
+      <c r="H11" s="73">
         <v>6000</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="73">
+        <v>7000</v>
+      </c>
+      <c r="J11" s="73">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="73">
         <v>1500</v>
       </c>
-      <c r="D12">
-        <v>3000</v>
-      </c>
-      <c r="E12">
-        <v>960</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="73">
+        <v>480</v>
+      </c>
+      <c r="F12" s="73">
         <v>4000</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="73">
         <v>1200</v>
       </c>
-      <c r="H12">
-        <v>800</v>
-      </c>
-      <c r="I12">
-        <v>600</v>
-      </c>
-      <c r="J12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I12" s="73">
+        <v>2600</v>
+      </c>
+      <c r="J12" s="73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C13">
-        <v>2000</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="73">
         <v>3000</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>4000</v>
-      </c>
-      <c r="G13">
+      <c r="E13" s="73"/>
+      <c r="F13" s="73">
+        <v>6000</v>
+      </c>
+      <c r="G13" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="73">
         <v>1200</v>
       </c>
-      <c r="H13">
-        <v>700</v>
-      </c>
-      <c r="I13">
-        <v>2000</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="73">
+        <v>3400</v>
+      </c>
+      <c r="J13" s="73">
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="73">
         <v>3500</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="73">
         <v>5000</v>
       </c>
-      <c r="E14">
-        <v>480</v>
-      </c>
-      <c r="F14">
-        <v>8000</v>
-      </c>
-      <c r="G14">
-        <v>2000</v>
-      </c>
-      <c r="H14">
-        <v>1400</v>
-      </c>
-      <c r="I14">
-        <v>4000</v>
-      </c>
-      <c r="J14">
+      <c r="E14" s="73"/>
+      <c r="F14" s="73">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="73">
+        <v>3400</v>
+      </c>
+      <c r="H14" s="73">
+        <v>2400</v>
+      </c>
+      <c r="I14" s="73">
+        <v>5000</v>
+      </c>
+      <c r="J14" s="73">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="73">
         <v>1000</v>
       </c>
-      <c r="D15">
-        <v>2000</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="73">
         <v>480</v>
       </c>
-      <c r="F15">
-        <v>2000</v>
-      </c>
-      <c r="G15">
-        <v>400</v>
-      </c>
-      <c r="H15">
-        <v>400</v>
-      </c>
-      <c r="I15">
-        <v>2000</v>
-      </c>
-      <c r="J15">
+      <c r="F15" s="73">
+        <v>4000</v>
+      </c>
+      <c r="G15" s="73">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="73">
+        <v>700</v>
+      </c>
+      <c r="I15" s="73">
+        <v>800</v>
+      </c>
+      <c r="J15" s="73">
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C16">
-        <v>2000</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="73">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="73">
         <v>5000</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>10000</v>
-      </c>
-      <c r="G16">
-        <v>2200</v>
-      </c>
-      <c r="H16">
-        <v>1800</v>
-      </c>
-      <c r="I16">
-        <v>7400</v>
-      </c>
-      <c r="J16">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E16" s="73">
+        <v>2880</v>
+      </c>
+      <c r="F16" s="73">
+        <v>8000</v>
+      </c>
+      <c r="G16" s="73">
+        <v>4000</v>
+      </c>
+      <c r="H16" s="73">
+        <v>2400</v>
+      </c>
+      <c r="I16" s="73">
+        <v>2000</v>
+      </c>
+      <c r="J16" s="73">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
-        <v>1500</v>
-      </c>
-      <c r="D17">
-        <v>3000</v>
-      </c>
-      <c r="E17">
-        <v>480</v>
-      </c>
-      <c r="F17">
-        <v>4000</v>
-      </c>
-      <c r="G17">
-        <v>600</v>
-      </c>
-      <c r="H17">
-        <v>900</v>
-      </c>
-      <c r="I17">
-        <v>3000</v>
-      </c>
-      <c r="J17">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="73">
+        <v>1400</v>
+      </c>
+      <c r="I17" s="73">
+        <v>800</v>
+      </c>
+      <c r="J17" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="73">
         <v>1500</v>
       </c>
-      <c r="D18">
-        <v>2000</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>4000</v>
-      </c>
-      <c r="G18">
-        <v>800</v>
-      </c>
-      <c r="H18">
-        <v>400</v>
-      </c>
-      <c r="I18">
-        <v>2000</v>
-      </c>
-      <c r="J18">
+      <c r="D18" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="73">
+        <v>1400</v>
+      </c>
+      <c r="H18" s="73">
+        <v>900</v>
+      </c>
+      <c r="I18" s="73">
+        <v>1600</v>
+      </c>
+      <c r="J18" s="73">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="73">
+        <v>500</v>
+      </c>
+      <c r="D19" s="73">
         <v>1000</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="73"/>
+      <c r="F19" s="73">
         <v>1000</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2000</v>
-      </c>
-      <c r="G19">
-        <v>600</v>
-      </c>
-      <c r="H19">
-        <v>400</v>
-      </c>
-      <c r="I19">
-        <v>1200</v>
-      </c>
-      <c r="J19">
+      <c r="G19" s="73">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H19" s="73">
+        <v>200</v>
+      </c>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="73">
+        <v>480</v>
+      </c>
+      <c r="F20" s="73">
+        <v>4000</v>
+      </c>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73">
+        <v>1200</v>
+      </c>
+      <c r="I20" s="73">
         <v>1000</v>
       </c>
-      <c r="D20">
-        <v>3000</v>
-      </c>
-      <c r="E20">
-        <v>480</v>
-      </c>
-      <c r="F20">
-        <v>4000</v>
-      </c>
-      <c r="G20">
-        <v>1400</v>
-      </c>
-      <c r="H20">
-        <v>600</v>
-      </c>
-      <c r="I20">
-        <v>2200</v>
-      </c>
-      <c r="J20">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J20" s="73">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="73">
         <v>1000</v>
       </c>
-      <c r="D21">
-        <v>2000</v>
-      </c>
-      <c r="E21">
-        <v>960</v>
-      </c>
-      <c r="F21">
-        <v>2000</v>
-      </c>
-      <c r="G21">
+      <c r="D21" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="73">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="73">
+        <v>600</v>
+      </c>
+      <c r="I21" s="73">
         <v>400</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>2200</v>
-      </c>
-      <c r="J21">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J21" s="73"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C22">
-        <v>2000</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="73">
         <v>3000</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>6000</v>
-      </c>
-      <c r="G22">
-        <v>600</v>
-      </c>
-      <c r="H22">
-        <v>1400</v>
-      </c>
-      <c r="I22">
-        <v>3400</v>
-      </c>
-      <c r="J22">
+      <c r="E22" s="73">
+        <v>480</v>
+      </c>
+      <c r="F22" s="73">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H22" s="73">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="73">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="73">
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C23">
-        <v>2000</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="73">
         <v>3000</v>
       </c>
-      <c r="E23">
-        <v>1440</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="73">
+        <v>960</v>
+      </c>
+      <c r="F23" s="73">
         <v>6000</v>
       </c>
-      <c r="G23">
-        <v>1200</v>
-      </c>
-      <c r="H23">
-        <v>1000</v>
-      </c>
-      <c r="I23">
-        <v>3200</v>
-      </c>
-      <c r="J23">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G23" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H23" s="73">
+        <v>1400</v>
+      </c>
+      <c r="I23" s="73">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="73">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C24">
-        <v>2500</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="73">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="73">
         <v>4000</v>
       </c>
-      <c r="E24">
-        <v>960</v>
-      </c>
-      <c r="F24">
-        <v>8000</v>
-      </c>
-      <c r="G24">
-        <v>1800</v>
-      </c>
-      <c r="H24">
-        <v>1300</v>
-      </c>
-      <c r="I24">
+      <c r="E24" s="73"/>
+      <c r="F24" s="73">
+        <v>6000</v>
+      </c>
+      <c r="G24" s="73">
+        <v>7400</v>
+      </c>
+      <c r="H24" s="73">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="73">
+        <v>3200</v>
+      </c>
+      <c r="J24" s="73">
         <v>4000</v>
       </c>
-      <c r="J24">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C25">
-        <v>2000</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="73">
         <v>3000</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="D25" s="73">
+        <v>4000</v>
+      </c>
+      <c r="E25" s="73">
+        <v>480</v>
+      </c>
+      <c r="F25" s="73">
         <v>6000</v>
       </c>
-      <c r="G25">
-        <v>1400</v>
-      </c>
-      <c r="H25">
-        <v>1400</v>
-      </c>
-      <c r="I25">
-        <v>3000</v>
-      </c>
-      <c r="J25">
+      <c r="G25" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H25" s="73">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="73">
+        <v>2600</v>
+      </c>
+      <c r="J25" s="73">
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="73">
+        <v>1500</v>
+      </c>
+      <c r="D26" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="73">
+        <v>1440</v>
+      </c>
+      <c r="F26" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="73">
         <v>1000</v>
       </c>
-      <c r="E26">
-        <v>480</v>
-      </c>
-      <c r="F26">
-        <v>2000</v>
-      </c>
-      <c r="G26">
-        <v>600</v>
-      </c>
-      <c r="H26">
-        <v>600</v>
-      </c>
-      <c r="I26">
-        <v>1400</v>
-      </c>
-      <c r="J26">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H26" s="73">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="73">
+        <v>1200</v>
+      </c>
+      <c r="J26" s="73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="73">
         <v>500</v>
       </c>
-      <c r="D27">
-        <v>2000</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>2000</v>
-      </c>
-      <c r="G27">
+      <c r="D27" s="73">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73">
         <v>600</v>
       </c>
-      <c r="H27">
-        <v>100</v>
-      </c>
-      <c r="I27">
+      <c r="I27" s="73">
         <v>1000</v>
       </c>
-      <c r="J27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J27" s="73">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C28">
-        <v>2000</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="73">
+        <v>3000</v>
+      </c>
+      <c r="D28" s="73">
+        <v>3000</v>
+      </c>
+      <c r="E28" s="73">
+        <v>1920</v>
+      </c>
+      <c r="F28" s="73">
+        <v>6000</v>
+      </c>
+      <c r="G28" s="73">
+        <v>3000</v>
+      </c>
+      <c r="H28" s="73">
+        <v>1800</v>
+      </c>
+      <c r="I28" s="73">
+        <v>3000</v>
+      </c>
+      <c r="J28" s="73">
         <v>4000</v>
       </c>
-      <c r="E28">
-        <v>1440</v>
-      </c>
-      <c r="F28">
-        <v>8000</v>
-      </c>
-      <c r="G28">
-        <v>1800</v>
-      </c>
-      <c r="H28">
-        <v>1400</v>
-      </c>
-      <c r="I28">
-        <v>3600</v>
-      </c>
-      <c r="J28">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="73">
         <v>1000</v>
       </c>
-      <c r="D29">
-        <v>2000</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>2000</v>
-      </c>
-      <c r="G29">
-        <v>600</v>
-      </c>
-      <c r="H29">
-        <v>800</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="73">
+        <v>480</v>
+      </c>
+      <c r="F29" s="73">
+        <v>4000</v>
+      </c>
+      <c r="G29" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H29" s="73">
+        <v>1100</v>
+      </c>
+      <c r="I29" s="73">
+        <v>1600</v>
+      </c>
+      <c r="J29" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C30">
-        <v>1500</v>
-      </c>
-      <c r="D30">
-        <v>1000</v>
-      </c>
-      <c r="E30">
-        <v>1440</v>
-      </c>
-      <c r="F30">
-        <v>2000</v>
-      </c>
-      <c r="G30">
-        <v>1000</v>
-      </c>
-      <c r="H30">
-        <v>600</v>
-      </c>
-      <c r="I30">
-        <v>1800</v>
-      </c>
-      <c r="J30">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C30" s="73">
+        <v>2500</v>
+      </c>
+      <c r="D30" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73">
+        <v>6000</v>
+      </c>
+      <c r="G30" s="73">
+        <v>1400</v>
+      </c>
+      <c r="H30" s="73">
+        <v>900</v>
+      </c>
+      <c r="I30" s="73">
+        <v>2200</v>
+      </c>
+      <c r="J30" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C31">
-        <v>2000</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="73">
         <v>4000</v>
       </c>
-      <c r="E31">
-        <v>1920</v>
-      </c>
-      <c r="F31">
-        <v>6000</v>
-      </c>
-      <c r="G31">
-        <v>2400</v>
-      </c>
-      <c r="H31">
-        <v>1300</v>
-      </c>
-      <c r="I31">
-        <v>1800</v>
-      </c>
-      <c r="J31">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D31" s="73">
+        <v>5000</v>
+      </c>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73">
+        <v>9000</v>
+      </c>
+      <c r="G31" s="73">
+        <v>4000</v>
+      </c>
+      <c r="H31" s="73">
+        <v>2200</v>
+      </c>
+      <c r="I31" s="73">
+        <v>5800</v>
+      </c>
+      <c r="J31" s="73">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="73">
+        <v>5500</v>
+      </c>
+      <c r="D32" s="73">
+        <v>8000</v>
+      </c>
+      <c r="E32" s="73">
+        <v>960</v>
+      </c>
+      <c r="F32" s="73">
+        <v>13000</v>
+      </c>
+      <c r="G32" s="73">
         <v>5000</v>
       </c>
-      <c r="D32">
-        <v>7000</v>
-      </c>
-      <c r="E32">
-        <v>1920</v>
-      </c>
-      <c r="F32">
-        <v>12000</v>
-      </c>
-      <c r="G32">
-        <v>3000</v>
-      </c>
-      <c r="H32">
-        <v>2400</v>
-      </c>
-      <c r="I32">
-        <v>10000</v>
-      </c>
-      <c r="J32">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H32" s="73">
+        <v>3800</v>
+      </c>
+      <c r="I32" s="73">
+        <v>5400</v>
+      </c>
+      <c r="J32" s="73">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C33">
-        <v>2000</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="73">
         <v>3000</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>6000</v>
-      </c>
-      <c r="G33">
-        <v>1400</v>
-      </c>
-      <c r="H33">
-        <v>1400</v>
-      </c>
-      <c r="I33">
-        <v>3000</v>
-      </c>
-      <c r="J33">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D33" s="73">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73">
+        <v>4000</v>
+      </c>
+      <c r="G33" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H33" s="73">
+        <v>1600</v>
+      </c>
+      <c r="I33" s="73">
+        <v>400</v>
+      </c>
+      <c r="J33" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C34">
-        <v>2500</v>
-      </c>
-      <c r="D34">
-        <v>5000</v>
-      </c>
-      <c r="E34">
-        <v>960</v>
-      </c>
-      <c r="F34">
-        <v>8000</v>
-      </c>
-      <c r="G34">
-        <v>2600</v>
-      </c>
-      <c r="H34">
-        <v>800</v>
-      </c>
-      <c r="I34">
-        <v>5000</v>
-      </c>
-      <c r="J34">
+      <c r="C34" s="73">
         <v>4500</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" s="73">
+        <v>7000</v>
+      </c>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73">
+        <v>10000</v>
+      </c>
+      <c r="G34" s="73">
+        <v>6400</v>
+      </c>
+      <c r="H34" s="73">
+        <v>3000</v>
+      </c>
+      <c r="I34" s="73">
+        <v>4800</v>
+      </c>
+      <c r="J34" s="73">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C35">
-        <v>3500</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="73">
         <v>5000</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>12000</v>
-      </c>
-      <c r="G35">
-        <v>2600</v>
-      </c>
-      <c r="H35">
-        <v>1800</v>
-      </c>
-      <c r="I35">
-        <v>6800</v>
-      </c>
-      <c r="J35">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E35" s="73"/>
+      <c r="F35" s="73">
+        <v>8000</v>
+      </c>
+      <c r="G35" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H35" s="73">
+        <v>1900</v>
+      </c>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="73">
         <v>4000</v>
       </c>
-      <c r="D36">
-        <v>6000</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>10000</v>
-      </c>
-      <c r="G36">
-        <v>2400</v>
-      </c>
-      <c r="H36">
+      <c r="D36" s="73">
+        <v>7000</v>
+      </c>
+      <c r="E36" s="73">
+        <v>480</v>
+      </c>
+      <c r="F36" s="73">
+        <v>12000</v>
+      </c>
+      <c r="G36" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H36" s="73">
         <v>2100</v>
       </c>
-      <c r="I36">
-        <v>8000</v>
-      </c>
-      <c r="J36">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I36" s="73">
+        <v>4200</v>
+      </c>
+      <c r="J36" s="73">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>2000</v>
-      </c>
-      <c r="E37">
+      <c r="C37" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="73">
         <v>480</v>
       </c>
-      <c r="F37">
-        <v>2000</v>
-      </c>
-      <c r="G37">
-        <v>400</v>
-      </c>
-      <c r="H37">
-        <v>400</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F37" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G37" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H37" s="73">
+        <v>600</v>
+      </c>
+      <c r="I37" s="73">
+        <v>4000</v>
+      </c>
+      <c r="J37" s="73">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C38">
-        <v>6000</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="73">
+        <v>4500</v>
+      </c>
+      <c r="D38" s="73">
+        <v>7000</v>
+      </c>
+      <c r="E38" s="73">
+        <v>3360</v>
+      </c>
+      <c r="F38" s="73">
+        <v>12000</v>
+      </c>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73">
+        <v>7600</v>
+      </c>
+      <c r="I38" s="73">
+        <v>8800</v>
+      </c>
+      <c r="J38" s="73">
         <v>9000</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>14000</v>
-      </c>
-      <c r="G38">
-        <v>2800</v>
-      </c>
-      <c r="H38">
-        <v>1500</v>
-      </c>
-      <c r="I38">
-        <v>8000</v>
-      </c>
-      <c r="J38">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="73">
         <v>4000</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="73">
         <v>6000</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="73">
         <v>480</v>
       </c>
-      <c r="F39">
-        <v>10000</v>
-      </c>
-      <c r="G39">
-        <v>2400</v>
-      </c>
-      <c r="H39">
-        <v>2000</v>
-      </c>
-      <c r="I39">
+      <c r="F39" s="73">
+        <v>9000</v>
+      </c>
+      <c r="G39" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H39" s="73">
+        <v>2900</v>
+      </c>
+      <c r="I39" s="73">
         <v>4800</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="73">
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C40">
-        <v>1500</v>
-      </c>
-      <c r="D40">
-        <v>3000</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>6000</v>
-      </c>
-      <c r="G40">
-        <v>200</v>
-      </c>
-      <c r="H40">
-        <v>1000</v>
-      </c>
-      <c r="I40">
-        <v>2000</v>
-      </c>
-      <c r="J40">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C40" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73">
+        <v>4000</v>
+      </c>
+      <c r="G40" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H40" s="73">
+        <v>1400</v>
+      </c>
+      <c r="I40" s="73">
+        <v>2000</v>
+      </c>
+      <c r="J40" s="73">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="73">
+        <v>500</v>
+      </c>
+      <c r="D41" s="73">
         <v>1000</v>
       </c>
-      <c r="D41">
+      <c r="E41" s="73"/>
+      <c r="F41" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73">
         <v>1000</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>600</v>
-      </c>
-      <c r="H41">
-        <v>300</v>
-      </c>
-      <c r="I41">
-        <v>600</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I41" s="73">
+        <v>400</v>
+      </c>
+      <c r="J41" s="73">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="73">
         <v>2500</v>
       </c>
-      <c r="D42">
-        <v>2000</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="73">
         <v>480</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="73">
         <v>4000</v>
       </c>
-      <c r="G42">
-        <v>1200</v>
-      </c>
-      <c r="H42">
-        <v>500</v>
-      </c>
-      <c r="I42">
-        <v>1400</v>
-      </c>
-      <c r="J42">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G42" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H42" s="73">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="73">
+        <v>2600</v>
+      </c>
+      <c r="J42" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C43">
-        <v>2500</v>
-      </c>
-      <c r="D43">
-        <v>2000</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="C43" s="73">
+        <v>3000</v>
+      </c>
+      <c r="D43" s="73">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="73">
+        <v>1440</v>
+      </c>
+      <c r="F43" s="73">
         <v>4000</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="73"/>
+      <c r="H43" s="73">
+        <v>1200</v>
+      </c>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73">
         <v>1000</v>
       </c>
-      <c r="H43">
-        <v>900</v>
-      </c>
-      <c r="I43">
-        <v>200</v>
-      </c>
-      <c r="J43">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C44">
-        <v>20000</v>
-      </c>
-      <c r="D44">
-        <v>24000</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>28000</v>
-      </c>
-      <c r="G44">
-        <v>7800</v>
-      </c>
-      <c r="H44">
-        <v>6300</v>
-      </c>
-      <c r="I44">
-        <v>25000</v>
-      </c>
-      <c r="J44">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C44" s="73">
+        <v>12500</v>
+      </c>
+      <c r="D44" s="73">
+        <v>18000</v>
+      </c>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73">
+        <v>35000</v>
+      </c>
+      <c r="G44" s="73">
+        <v>13400</v>
+      </c>
+      <c r="H44" s="73">
+        <v>9100</v>
+      </c>
+      <c r="I44" s="73">
+        <v>16000</v>
+      </c>
+      <c r="J44" s="73">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C45">
-        <v>3500</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="73">
+        <v>4500</v>
+      </c>
+      <c r="D45" s="73">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="73">
+        <v>3360</v>
+      </c>
+      <c r="F45" s="73">
+        <v>12000</v>
+      </c>
+      <c r="G45" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H45" s="73">
+        <v>1400</v>
+      </c>
+      <c r="I45" s="73">
         <v>6000</v>
       </c>
-      <c r="E45">
-        <v>3360</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>2600</v>
-      </c>
-      <c r="H45">
-        <v>1700</v>
-      </c>
-      <c r="I45">
-        <v>6200</v>
-      </c>
-      <c r="J45">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J45" s="73">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C46">
-        <v>3000</v>
-      </c>
-      <c r="D46">
-        <v>5000</v>
-      </c>
-      <c r="E46">
-        <v>1920</v>
-      </c>
-      <c r="F46">
+      <c r="C46" s="73">
+        <v>7000</v>
+      </c>
+      <c r="D46" s="73">
+        <v>4000</v>
+      </c>
+      <c r="E46" s="73">
+        <v>480</v>
+      </c>
+      <c r="F46" s="73">
         <v>8000</v>
       </c>
-      <c r="G46">
-        <v>2200</v>
-      </c>
-      <c r="H46">
-        <v>1300</v>
-      </c>
-      <c r="I46">
-        <v>5600</v>
-      </c>
-      <c r="J46">
-        <v>7000</v>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73">
+        <v>2700</v>
+      </c>
+      <c r="I46" s="73">
+        <v>4600</v>
+      </c>
+      <c r="J46" s="73">
+        <v>4000</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C47">
-        <v>2000</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="73">
         <v>3000</v>
       </c>
-      <c r="E47">
-        <v>3360</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="73"/>
+      <c r="F47" s="73">
         <v>6000</v>
       </c>
-      <c r="G47">
-        <v>1400</v>
-      </c>
-      <c r="H47">
-        <v>1100</v>
-      </c>
-      <c r="I47">
-        <v>3400</v>
-      </c>
-      <c r="J47">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G47" s="73"/>
+      <c r="H47" s="73">
+        <v>1800</v>
+      </c>
+      <c r="I47" s="73">
+        <v>400</v>
+      </c>
+      <c r="J47" s="73">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="73">
+        <v>500</v>
+      </c>
+      <c r="D48" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="73">
+        <v>960</v>
+      </c>
+      <c r="F48" s="73">
         <v>1000</v>
       </c>
-      <c r="D48">
-        <v>2000</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>2000</v>
-      </c>
-      <c r="G48">
+      <c r="G48" s="73">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="73">
         <v>600</v>
       </c>
-      <c r="H48">
-        <v>500</v>
-      </c>
-      <c r="I48">
-        <v>1600</v>
-      </c>
-      <c r="J48">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I48" s="73">
+        <v>800</v>
+      </c>
+      <c r="J48" s="73"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="73">
         <v>6000</v>
       </c>
-      <c r="D49">
-        <v>8000</v>
-      </c>
-      <c r="E49">
-        <v>960</v>
-      </c>
-      <c r="F49">
-        <v>14000</v>
-      </c>
-      <c r="G49">
-        <v>3600</v>
-      </c>
-      <c r="H49">
+      <c r="D49" s="73">
+        <v>9000</v>
+      </c>
+      <c r="E49" s="73">
+        <v>4320</v>
+      </c>
+      <c r="F49" s="73">
+        <v>13000</v>
+      </c>
+      <c r="G49" s="73">
+        <v>6400</v>
+      </c>
+      <c r="H49" s="73">
+        <v>4300</v>
+      </c>
+      <c r="I49" s="73">
+        <v>11800</v>
+      </c>
+      <c r="J49" s="73">
         <v>3000</v>
       </c>
-      <c r="I49">
-        <v>8800</v>
-      </c>
-      <c r="J49">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="73">
+        <v>1500</v>
+      </c>
+      <c r="D50" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73">
+        <v>4000</v>
+      </c>
+      <c r="G50" s="73">
+        <v>1400</v>
+      </c>
+      <c r="H50" s="73">
         <v>1000</v>
       </c>
-      <c r="D50">
-        <v>2000</v>
-      </c>
-      <c r="E50">
-        <v>480</v>
-      </c>
-      <c r="F50">
-        <v>2000</v>
-      </c>
-      <c r="G50">
-        <v>600</v>
-      </c>
-      <c r="H50">
-        <v>500</v>
-      </c>
-      <c r="I50">
-        <v>1400</v>
-      </c>
-      <c r="J50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I50" s="73">
+        <v>2400</v>
+      </c>
+      <c r="J50" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="73">
         <v>3000</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="73">
         <v>4000</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>8000</v>
-      </c>
-      <c r="G51">
-        <v>2000</v>
-      </c>
-      <c r="H51">
-        <v>2000</v>
-      </c>
-      <c r="I51">
-        <v>6200</v>
-      </c>
-      <c r="J51">
+      <c r="E51" s="73">
+        <v>480</v>
+      </c>
+      <c r="F51" s="73">
         <v>6000</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G51" s="73">
+        <v>3400</v>
+      </c>
+      <c r="H51" s="73">
+        <v>2800</v>
+      </c>
+      <c r="I51" s="73">
+        <v>3800</v>
+      </c>
+      <c r="J51" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C52">
-        <v>4000</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="73">
+        <v>7000</v>
+      </c>
+      <c r="D52" s="73">
         <v>9000</v>
       </c>
-      <c r="E52">
-        <v>1920</v>
-      </c>
-      <c r="F52">
-        <v>14000</v>
-      </c>
-      <c r="G52">
-        <v>2000</v>
-      </c>
-      <c r="H52">
-        <v>2600</v>
-      </c>
-      <c r="I52">
-        <v>12400</v>
-      </c>
-      <c r="J52">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E52" s="73">
+        <v>960</v>
+      </c>
+      <c r="F52" s="73">
+        <v>19000</v>
+      </c>
+      <c r="G52" s="73">
+        <v>13400</v>
+      </c>
+      <c r="H52" s="73">
+        <v>4200</v>
+      </c>
+      <c r="I52" s="73">
+        <v>8800</v>
+      </c>
+      <c r="J52" s="73">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="73">
+        <v>1500</v>
+      </c>
+      <c r="D53" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="73">
+        <v>960</v>
+      </c>
+      <c r="F53" s="73">
+        <v>3000</v>
+      </c>
+      <c r="G53" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H53" s="73">
         <v>1000</v>
       </c>
-      <c r="D53">
-        <v>2000</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>4000</v>
-      </c>
-      <c r="G53">
-        <v>800</v>
-      </c>
-      <c r="H53">
-        <v>1000</v>
-      </c>
-      <c r="I53">
-        <v>2600</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I53" s="73">
+        <v>1800</v>
+      </c>
+      <c r="J53" s="73">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="73">
         <v>3000</v>
       </c>
-      <c r="D54">
-        <v>2000</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>2000</v>
-      </c>
-      <c r="G54">
-        <v>600</v>
-      </c>
-      <c r="H54">
-        <v>700</v>
-      </c>
-      <c r="I54">
-        <v>1600</v>
-      </c>
-      <c r="J54">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D54" s="73">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="73">
+        <v>2400</v>
+      </c>
+      <c r="F54" s="73">
+        <v>6000</v>
+      </c>
+      <c r="G54" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H54" s="73">
+        <v>2000</v>
+      </c>
+      <c r="I54" s="73">
+        <v>3000</v>
+      </c>
+      <c r="J54" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C55">
-        <v>1500</v>
-      </c>
-      <c r="D55">
-        <v>12000</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
+      <c r="C55" s="73">
+        <v>3000</v>
+      </c>
+      <c r="D55" s="73">
+        <v>4000</v>
+      </c>
+      <c r="E55" s="73">
+        <v>1440</v>
+      </c>
+      <c r="F55" s="73">
         <v>6000</v>
       </c>
-      <c r="G55">
-        <v>2400</v>
-      </c>
-      <c r="H55">
-        <v>1100</v>
-      </c>
-      <c r="I55">
-        <v>3200</v>
-      </c>
-      <c r="J55">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G55" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H55" s="73">
+        <v>1600</v>
+      </c>
+      <c r="I55" s="73">
+        <v>4000</v>
+      </c>
+      <c r="J55" s="73">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C56">
-        <v>2500</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="73">
+        <v>1500</v>
+      </c>
+      <c r="D56" s="73">
         <v>4000</v>
       </c>
-      <c r="E56">
-        <v>960</v>
-      </c>
-      <c r="F56">
-        <v>6000</v>
-      </c>
-      <c r="G56">
-        <v>1400</v>
-      </c>
-      <c r="H56">
-        <v>1200</v>
-      </c>
-      <c r="I56">
-        <v>4800</v>
-      </c>
-      <c r="J56">
+      <c r="E56" s="73">
+        <v>1920</v>
+      </c>
+      <c r="F56" s="73">
         <v>5000</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G56" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H56" s="73">
+        <v>7100</v>
+      </c>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C57">
-        <v>2500</v>
-      </c>
-      <c r="D57">
-        <v>5000</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="C57" s="73">
+        <v>8000</v>
+      </c>
+      <c r="D57" s="73">
         <v>6000</v>
       </c>
-      <c r="G57">
-        <v>1000</v>
-      </c>
-      <c r="H57">
-        <v>1600</v>
-      </c>
-      <c r="I57">
+      <c r="E57" s="73"/>
+      <c r="F57" s="73">
+        <v>12000</v>
+      </c>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73">
         <v>4000</v>
       </c>
-      <c r="J57">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I57" s="73">
+        <v>2400</v>
+      </c>
+      <c r="J57" s="73">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C58">
-        <v>1500</v>
-      </c>
-      <c r="D58">
+      <c r="C58" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D58" s="73">
         <v>3000</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="73">
         <v>960</v>
       </c>
-      <c r="F58">
-        <v>4000</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G58" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H58" s="73">
         <v>1200</v>
       </c>
-      <c r="H58">
-        <v>900</v>
-      </c>
-      <c r="I58">
-        <v>1800</v>
-      </c>
-      <c r="J58">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I58" s="73">
+        <v>200</v>
+      </c>
+      <c r="J58" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C59">
-        <v>2500</v>
-      </c>
-      <c r="D59">
-        <v>2000</v>
-      </c>
-      <c r="E59">
-        <v>3360</v>
-      </c>
-      <c r="F59">
-        <v>6000</v>
-      </c>
-      <c r="G59">
-        <v>1200</v>
-      </c>
-      <c r="H59">
-        <v>700</v>
-      </c>
-      <c r="I59">
-        <v>2800</v>
-      </c>
-      <c r="J59">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C59" s="73"/>
+      <c r="D59" s="73">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73">
+        <v>3000</v>
+      </c>
+      <c r="G59" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H59" s="73">
+        <v>3000</v>
+      </c>
+      <c r="I59" s="73">
+        <v>2200</v>
+      </c>
+      <c r="J59" s="73"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C60">
-        <v>1500</v>
-      </c>
-      <c r="D60">
-        <v>3000</v>
-      </c>
-      <c r="E60">
-        <v>960</v>
-      </c>
-      <c r="F60">
-        <v>6000</v>
-      </c>
-      <c r="G60">
-        <v>1400</v>
-      </c>
-      <c r="H60">
-        <v>700</v>
-      </c>
-      <c r="I60">
-        <v>2400</v>
-      </c>
-      <c r="J60">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C60" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D60" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H60" s="73">
+        <v>900</v>
+      </c>
+      <c r="I60" s="73">
+        <v>2000</v>
+      </c>
+      <c r="J60" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C61">
-        <v>2000</v>
-      </c>
-      <c r="D61">
-        <v>1000</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>2000</v>
-      </c>
-      <c r="G61">
-        <v>600</v>
-      </c>
-      <c r="H61">
-        <v>1400</v>
-      </c>
-      <c r="I61">
-        <v>2000</v>
-      </c>
-      <c r="J61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C61" s="73">
+        <v>4000</v>
+      </c>
+      <c r="D61" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73">
+        <v>4000</v>
+      </c>
+      <c r="G61" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H61" s="73">
+        <v>700</v>
+      </c>
+      <c r="I61" s="73">
+        <v>3000</v>
+      </c>
+      <c r="J61" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C62">
-        <v>2000</v>
-      </c>
-      <c r="D62">
+      <c r="C62" s="73">
+        <v>1500</v>
+      </c>
+      <c r="D62" s="73">
         <v>3000</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="73">
         <v>480</v>
       </c>
-      <c r="F62">
-        <v>6000</v>
-      </c>
-      <c r="G62">
-        <v>1400</v>
-      </c>
-      <c r="H62">
-        <v>600</v>
-      </c>
-      <c r="I62">
-        <v>3800</v>
-      </c>
-      <c r="J62">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F62" s="73">
+        <v>5000</v>
+      </c>
+      <c r="G62" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H62" s="73">
+        <v>1200</v>
+      </c>
+      <c r="I62" s="73">
+        <v>2600</v>
+      </c>
+      <c r="J62" s="73">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="73">
         <v>1000</v>
       </c>
-      <c r="D63">
-        <v>1000</v>
-      </c>
-      <c r="E63">
-        <v>1440</v>
-      </c>
-      <c r="F63">
-        <v>4000</v>
-      </c>
-      <c r="G63">
+      <c r="D63" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E63" s="73">
+        <v>480</v>
+      </c>
+      <c r="F63" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73">
         <v>600</v>
       </c>
-      <c r="H63">
-        <v>1400</v>
-      </c>
-      <c r="I63">
-        <v>400</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I63" s="73">
+        <v>800</v>
+      </c>
+      <c r="J63" s="73">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="73">
         <v>1000</v>
       </c>
-      <c r="D64">
-        <v>2000</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
+      <c r="D64" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73">
         <v>4000</v>
       </c>
-      <c r="G64">
-        <v>400</v>
-      </c>
-      <c r="H64">
-        <v>300</v>
-      </c>
-      <c r="I64">
-        <v>3600</v>
-      </c>
-      <c r="J64">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G64" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H64" s="73">
+        <v>1400</v>
+      </c>
+      <c r="I64" s="73">
+        <v>600</v>
+      </c>
+      <c r="J64" s="73">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C65">
-        <v>1500</v>
-      </c>
-      <c r="D65">
-        <v>3000</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
+      <c r="C65" s="73">
+        <v>4000</v>
+      </c>
+      <c r="D65" s="73">
+        <v>4000</v>
+      </c>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73">
         <v>6000</v>
       </c>
-      <c r="G65">
-        <v>800</v>
-      </c>
-      <c r="H65">
-        <v>900</v>
-      </c>
-      <c r="I65">
-        <v>5800</v>
-      </c>
-      <c r="J65">
+      <c r="G65" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H65" s="73">
+        <v>2000</v>
+      </c>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73">
         <v>4500</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C66">
-        <v>3000</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="73">
+        <v>3500</v>
+      </c>
+      <c r="D66" s="73">
         <v>5000</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>10000</v>
-      </c>
-      <c r="G66">
-        <v>1200</v>
-      </c>
-      <c r="H66">
-        <v>1400</v>
-      </c>
-      <c r="I66">
+      <c r="E66" s="73">
+        <v>960</v>
+      </c>
+      <c r="F66" s="73">
+        <v>9000</v>
+      </c>
+      <c r="G66" s="73">
+        <v>6000</v>
+      </c>
+      <c r="H66" s="73">
+        <v>2800</v>
+      </c>
+      <c r="I66" s="73">
         <v>5800</v>
       </c>
-      <c r="J66">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J66" s="73">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="73">
         <v>1500</v>
       </c>
-      <c r="D67">
-        <v>2000</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E67" s="73">
         <v>960</v>
       </c>
-      <c r="F67">
-        <v>2000</v>
-      </c>
-      <c r="G67">
+      <c r="F67" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G67" s="73">
+        <v>1400</v>
+      </c>
+      <c r="H67" s="73">
         <v>800</v>
       </c>
-      <c r="H67">
-        <v>600</v>
-      </c>
-      <c r="I67">
-        <v>1600</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="73">
         <v>2500</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="73">
+        <v>4000</v>
+      </c>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73">
         <v>5000</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>6000</v>
-      </c>
-      <c r="G68">
-        <v>2200</v>
-      </c>
-      <c r="H68">
-        <v>1500</v>
-      </c>
-      <c r="I68">
-        <v>5400</v>
-      </c>
-      <c r="J68">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G68" s="73">
+        <v>4000</v>
+      </c>
+      <c r="H68" s="73">
+        <v>2400</v>
+      </c>
+      <c r="I68" s="73">
+        <v>600</v>
+      </c>
+      <c r="J68" s="73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C69">
-        <v>2000</v>
-      </c>
-      <c r="D69">
+      <c r="C69" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D69" s="73">
         <v>3000</v>
       </c>
-      <c r="E69">
-        <v>960</v>
-      </c>
-      <c r="F69">
+      <c r="E69" s="73">
+        <v>480</v>
+      </c>
+      <c r="F69" s="73">
         <v>4000</v>
       </c>
-      <c r="G69">
-        <v>1400</v>
-      </c>
-      <c r="H69">
-        <v>800</v>
-      </c>
-      <c r="I69">
+      <c r="G69" s="73">
+        <v>5400</v>
+      </c>
+      <c r="H69" s="73">
+        <v>1200</v>
+      </c>
+      <c r="I69" s="73">
         <v>2200</v>
       </c>
-      <c r="J69">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J69" s="73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="73">
+        <v>5000</v>
+      </c>
+      <c r="D70" s="73">
         <v>6000</v>
       </c>
-      <c r="D70">
-        <v>5000</v>
-      </c>
-      <c r="E70">
-        <v>2400</v>
-      </c>
-      <c r="F70">
-        <v>10000</v>
-      </c>
-      <c r="G70">
-        <v>2400</v>
-      </c>
-      <c r="H70">
-        <v>1900</v>
-      </c>
-      <c r="I70">
-        <v>5000</v>
-      </c>
-      <c r="J70">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E70" s="73">
+        <v>480</v>
+      </c>
+      <c r="F70" s="73">
+        <v>9000</v>
+      </c>
+      <c r="G70" s="73">
+        <v>4000</v>
+      </c>
+      <c r="H70" s="73">
+        <v>2700</v>
+      </c>
+      <c r="I70" s="73">
+        <v>5400</v>
+      </c>
+      <c r="J70" s="73">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C71">
-        <v>10000</v>
-      </c>
-      <c r="D71">
-        <v>3000</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>1400</v>
-      </c>
-      <c r="H71">
-        <v>4100</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73">
+        <v>1920</v>
+      </c>
+      <c r="F71" s="73">
+        <v>8000</v>
+      </c>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73">
+        <v>100</v>
+      </c>
+      <c r="I71" s="73">
+        <v>800</v>
+      </c>
+      <c r="J71" s="73">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="73">
         <v>1000</v>
       </c>
-      <c r="D72">
-        <v>2000</v>
-      </c>
-      <c r="E72">
-        <v>480</v>
-      </c>
-      <c r="F72">
-        <v>2000</v>
-      </c>
-      <c r="G72">
-        <v>600</v>
-      </c>
-      <c r="H72">
-        <v>300</v>
-      </c>
-      <c r="I72">
+      <c r="D72" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E72" s="73">
+        <v>960</v>
+      </c>
+      <c r="F72" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G72" s="73">
+        <v>1000</v>
+      </c>
+      <c r="H72" s="73">
+        <v>1000</v>
+      </c>
+      <c r="I72" s="73">
         <v>1400</v>
       </c>
-      <c r="J72">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J72" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C73">
-        <v>1500</v>
-      </c>
-      <c r="D73">
+      <c r="C73" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="73">
         <v>3000</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
+      <c r="E73" s="73">
+        <v>4320</v>
+      </c>
+      <c r="F73" s="73">
+        <v>4000</v>
+      </c>
+      <c r="G73" s="73">
+        <v>3000</v>
+      </c>
+      <c r="H73" s="73">
+        <v>1000</v>
+      </c>
+      <c r="I73" s="73">
+        <v>1200</v>
+      </c>
+      <c r="J73" s="73">
         <v>6000</v>
       </c>
-      <c r="G73">
-        <v>1000</v>
-      </c>
-      <c r="H73">
-        <v>1200</v>
-      </c>
-      <c r="I73">
-        <v>5400</v>
-      </c>
-      <c r="J73">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C74">
-        <v>1500</v>
-      </c>
-      <c r="D74">
+      <c r="C74" s="73">
+        <v>2500</v>
+      </c>
+      <c r="D74" s="73">
         <v>3000</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>4000</v>
-      </c>
-      <c r="G74">
-        <v>600</v>
-      </c>
-      <c r="H74">
-        <v>600</v>
-      </c>
-      <c r="I74">
-        <v>2000</v>
-      </c>
-      <c r="J74">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E74" s="73"/>
+      <c r="F74" s="73">
+        <v>3000</v>
+      </c>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73">
+        <v>900</v>
+      </c>
+      <c r="I74" s="73">
+        <v>2000</v>
+      </c>
+      <c r="J74" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C75">
-        <v>1500</v>
-      </c>
-      <c r="D75">
-        <v>4000</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>6000</v>
-      </c>
-      <c r="G75">
-        <v>800</v>
-      </c>
-      <c r="H75">
-        <v>900</v>
-      </c>
-      <c r="I75">
-        <v>4600</v>
-      </c>
-      <c r="J75">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C75" s="73">
+        <v>2500</v>
+      </c>
+      <c r="D75" s="73">
+        <v>3000</v>
+      </c>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G75" s="73">
+        <v>3000</v>
+      </c>
+      <c r="H75" s="73">
+        <v>1000</v>
+      </c>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="73">
         <v>2500</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="73">
         <v>4000</v>
       </c>
-      <c r="E76">
-        <v>1440</v>
-      </c>
-      <c r="F76">
+      <c r="E76" s="73">
+        <v>480</v>
+      </c>
+      <c r="F76" s="73">
         <v>6000</v>
       </c>
-      <c r="G76">
-        <v>1600</v>
-      </c>
-      <c r="H76">
-        <v>1200</v>
-      </c>
-      <c r="I76">
-        <v>3800</v>
-      </c>
-      <c r="J76">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G76" s="73">
+        <v>3000</v>
+      </c>
+      <c r="H76" s="73">
+        <v>1900</v>
+      </c>
+      <c r="I76" s="73">
+        <v>2600</v>
+      </c>
+      <c r="J76" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C77">
-        <v>4000</v>
-      </c>
-      <c r="D77">
+      <c r="C77" s="73">
+        <v>4500</v>
+      </c>
+      <c r="D77" s="73">
         <v>6000</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>8000</v>
-      </c>
-      <c r="G77">
-        <v>2600</v>
-      </c>
-      <c r="H77">
-        <v>1300</v>
-      </c>
-      <c r="I77">
-        <v>6000</v>
-      </c>
-      <c r="J77">
+      <c r="E77" s="73"/>
+      <c r="F77" s="73">
+        <v>12000</v>
+      </c>
+      <c r="G77" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H77" s="73">
+        <v>2800</v>
+      </c>
+      <c r="I77" s="73">
+        <v>7200</v>
+      </c>
+      <c r="J77" s="73">
         <v>3000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C78">
-        <v>6500</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="73">
+        <v>8000</v>
+      </c>
+      <c r="D78" s="73">
         <v>6000</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>10000</v>
-      </c>
-      <c r="G78">
-        <v>2600</v>
-      </c>
-      <c r="H78">
-        <v>2800</v>
-      </c>
-      <c r="I78">
+      <c r="E78" s="73">
+        <v>2400</v>
+      </c>
+      <c r="F78" s="73">
+        <v>4000</v>
+      </c>
+      <c r="G78" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H78" s="73">
+        <v>2000</v>
+      </c>
+      <c r="I78" s="73">
+        <v>3000</v>
+      </c>
+      <c r="J78" s="73">
         <v>5000</v>
       </c>
-      <c r="J78">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C79">
-        <v>3000</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="73">
+        <v>4000</v>
+      </c>
+      <c r="D79" s="73">
         <v>6000</v>
       </c>
-      <c r="E79">
-        <v>2880</v>
-      </c>
-      <c r="F79">
+      <c r="E79" s="73">
+        <v>480</v>
+      </c>
+      <c r="F79" s="73">
         <v>10000</v>
       </c>
-      <c r="G79">
-        <v>2400</v>
-      </c>
-      <c r="H79">
-        <v>2000</v>
-      </c>
-      <c r="I79">
-        <v>7000</v>
-      </c>
-      <c r="J79">
+      <c r="G79" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H79" s="73">
+        <v>2900</v>
+      </c>
+      <c r="I79" s="73">
+        <v>5800</v>
+      </c>
+      <c r="J79" s="73">
         <v>6000</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C80">
-        <v>2000</v>
-      </c>
-      <c r="D80">
-        <v>2000</v>
-      </c>
-      <c r="E80">
-        <v>960</v>
-      </c>
-      <c r="F80">
+      <c r="C80" s="73">
+        <v>3000</v>
+      </c>
+      <c r="D80" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73">
         <v>4000</v>
       </c>
-      <c r="G80">
-        <v>1000</v>
-      </c>
-      <c r="H80">
+      <c r="G80" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H80" s="73">
         <v>1200</v>
       </c>
-      <c r="I80">
-        <v>2200</v>
-      </c>
-      <c r="J80">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I80" s="73">
+        <v>1400</v>
+      </c>
+      <c r="J80" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="73">
         <v>3000</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="73">
         <v>4000</v>
       </c>
-      <c r="E81">
-        <v>480</v>
-      </c>
-      <c r="F81">
-        <v>6000</v>
-      </c>
-      <c r="G81">
-        <v>1800</v>
-      </c>
-      <c r="H81">
-        <v>1400</v>
-      </c>
-      <c r="I81">
-        <v>5200</v>
-      </c>
-      <c r="J81">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E81" s="73"/>
+      <c r="F81" s="73">
+        <v>7000</v>
+      </c>
+      <c r="G81" s="73">
+        <v>3000</v>
+      </c>
+      <c r="H81" s="73">
+        <v>2000</v>
+      </c>
+      <c r="I81" s="73">
+        <v>3800</v>
+      </c>
+      <c r="J81" s="73">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="73">
         <v>1000</v>
       </c>
-      <c r="D82">
-        <v>2000</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>2000</v>
-      </c>
-      <c r="G82">
-        <v>600</v>
-      </c>
-      <c r="H82">
+      <c r="D82" s="73">
+        <v>1000</v>
+      </c>
+      <c r="E82" s="73">
+        <v>1440</v>
+      </c>
+      <c r="F82" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G82" s="73">
+        <v>1000</v>
+      </c>
+      <c r="H82" s="73">
+        <v>700</v>
+      </c>
+      <c r="I82" s="73">
+        <v>1000</v>
+      </c>
+      <c r="J82" s="73">
         <v>500</v>
       </c>
-      <c r="I82">
-        <v>1800</v>
-      </c>
-      <c r="J82">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C83">
-        <v>3000</v>
-      </c>
-      <c r="D83">
-        <v>2000</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>800</v>
-      </c>
-      <c r="H83">
+      <c r="C83" s="73">
+        <v>1000</v>
+      </c>
+      <c r="D83" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="73">
+        <v>960</v>
+      </c>
+      <c r="F83" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="73">
+        <v>1400</v>
+      </c>
+      <c r="H83" s="73">
         <v>700</v>
       </c>
-      <c r="I83">
-        <v>1200</v>
-      </c>
-      <c r="J83">
+      <c r="I83" s="73">
         <v>1000</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J83" s="73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="73">
+        <v>4500</v>
+      </c>
+      <c r="D84" s="73">
         <v>4000</v>
       </c>
-      <c r="D84">
-        <v>3000</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>6000</v>
-      </c>
-      <c r="G84">
-        <v>600</v>
-      </c>
-      <c r="H84">
-        <v>800</v>
-      </c>
-      <c r="I84">
-        <v>3000</v>
-      </c>
-      <c r="J84">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E84" s="73">
+        <v>4800</v>
+      </c>
+      <c r="F84" s="73">
+        <v>8000</v>
+      </c>
+      <c r="G84" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H84" s="73">
+        <v>4500</v>
+      </c>
+      <c r="I84" s="73">
+        <v>5000</v>
+      </c>
+      <c r="J84" s="73">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C85">
-        <v>3500</v>
-      </c>
-      <c r="D85">
-        <v>7000</v>
-      </c>
-      <c r="E85">
-        <v>960</v>
-      </c>
-      <c r="F85">
-        <v>10000</v>
-      </c>
-      <c r="G85">
-        <v>3600</v>
-      </c>
-      <c r="H85">
-        <v>2000</v>
-      </c>
-      <c r="I85">
-        <v>7800</v>
-      </c>
-      <c r="J85">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C85" s="73">
+        <v>4500</v>
+      </c>
+      <c r="D85" s="73">
+        <v>8000</v>
+      </c>
+      <c r="E85" s="73">
+        <v>1440</v>
+      </c>
+      <c r="F85" s="73">
+        <v>15000</v>
+      </c>
+      <c r="G85" s="73">
+        <v>12000</v>
+      </c>
+      <c r="H85" s="73">
+        <v>3200</v>
+      </c>
+      <c r="I85" s="73">
+        <v>7600</v>
+      </c>
+      <c r="J85" s="73">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C86">
-        <v>5000</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="73">
         <v>6000</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>10000</v>
-      </c>
-      <c r="G86">
-        <v>3200</v>
-      </c>
-      <c r="H86">
-        <v>2600</v>
-      </c>
-      <c r="I86">
-        <v>7000</v>
-      </c>
-      <c r="J86">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D86" s="73">
+        <v>8000</v>
+      </c>
+      <c r="E86" s="73">
+        <v>2400</v>
+      </c>
+      <c r="F86" s="73">
+        <v>14000</v>
+      </c>
+      <c r="G86" s="73">
+        <v>5400</v>
+      </c>
+      <c r="H86" s="73">
+        <v>3700</v>
+      </c>
+      <c r="I86" s="73">
+        <v>8000</v>
+      </c>
+      <c r="J86" s="73">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C87">
-        <v>1000</v>
-      </c>
-      <c r="D87">
-        <v>2000</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>4000</v>
-      </c>
-      <c r="G87">
-        <v>400</v>
-      </c>
-      <c r="H87">
-        <v>400</v>
-      </c>
-      <c r="I87">
-        <v>800</v>
-      </c>
-      <c r="J87">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C87" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D87" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E87" s="73">
+        <v>480</v>
+      </c>
+      <c r="F87" s="73">
+        <v>3000</v>
+      </c>
+      <c r="G87" s="73">
+        <v>3000</v>
+      </c>
+      <c r="H87" s="73">
+        <v>1100</v>
+      </c>
+      <c r="I87" s="73">
+        <v>2000</v>
+      </c>
+      <c r="J87" s="73">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C88">
-        <v>2000</v>
-      </c>
-      <c r="D88">
+      <c r="C88" s="73">
+        <v>1500</v>
+      </c>
+      <c r="D88" s="73">
         <v>3000</v>
       </c>
-      <c r="E88">
-        <v>960</v>
-      </c>
-      <c r="F88">
+      <c r="E88" s="73"/>
+      <c r="F88" s="73">
         <v>4000</v>
       </c>
-      <c r="G88">
-        <v>1000</v>
-      </c>
-      <c r="H88">
-        <v>900</v>
-      </c>
-      <c r="I88">
+      <c r="G88" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H88" s="73">
+        <v>1300</v>
+      </c>
+      <c r="I88" s="73">
         <v>2200</v>
       </c>
-      <c r="J88">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J88" s="73">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C89">
-        <v>1000</v>
-      </c>
-      <c r="D89">
-        <v>2000</v>
-      </c>
-      <c r="E89">
+      <c r="C89" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D89" s="73">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="73">
         <v>480</v>
       </c>
-      <c r="F89">
-        <v>4000</v>
-      </c>
-      <c r="G89">
-        <v>600</v>
-      </c>
-      <c r="H89">
-        <v>600</v>
-      </c>
-      <c r="I89">
-        <v>2200</v>
-      </c>
-      <c r="J89">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F89" s="73">
+        <v>3000</v>
+      </c>
+      <c r="G89" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H89" s="73">
+        <v>1200</v>
+      </c>
+      <c r="I89" s="73">
+        <v>1800</v>
+      </c>
+      <c r="J89" s="73">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="73">
+        <v>1500</v>
+      </c>
+      <c r="D90" s="73">
         <v>3000</v>
       </c>
-      <c r="D90">
-        <v>3000</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
+      <c r="E90" s="73"/>
+      <c r="F90" s="73">
         <v>6000</v>
       </c>
-      <c r="G90">
-        <v>1200</v>
-      </c>
-      <c r="H90">
-        <v>2100</v>
-      </c>
-      <c r="I90">
-        <v>3200</v>
-      </c>
-      <c r="J90">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G90" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H90" s="73">
+        <v>1000</v>
+      </c>
+      <c r="I90" s="73">
+        <v>3600</v>
+      </c>
+      <c r="J90" s="73">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C91">
-        <v>1500</v>
-      </c>
-      <c r="D91">
+      <c r="C91" s="73">
+        <v>2500</v>
+      </c>
+      <c r="D91" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E91" s="73"/>
+      <c r="F91" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G91" s="73">
+        <v>2400</v>
+      </c>
+      <c r="H91" s="73">
+        <v>1600</v>
+      </c>
+      <c r="I91" s="73">
         <v>3000</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>6000</v>
-      </c>
-      <c r="G91">
-        <v>1400</v>
-      </c>
-      <c r="H91">
-        <v>1000</v>
-      </c>
-      <c r="I91">
-        <v>3600</v>
-      </c>
-      <c r="J91">
+      <c r="J91" s="73">
         <v>4000</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="73">
+        <v>1500</v>
+      </c>
+      <c r="D92" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E92" s="73">
+        <v>960</v>
+      </c>
+      <c r="F92" s="73">
         <v>3000</v>
       </c>
-      <c r="D92">
-        <v>2000</v>
-      </c>
-      <c r="E92">
-        <v>960</v>
-      </c>
-      <c r="F92">
-        <v>4000</v>
-      </c>
-      <c r="G92">
-        <v>800</v>
-      </c>
-      <c r="H92">
-        <v>700</v>
-      </c>
-      <c r="I92">
-        <v>2200</v>
-      </c>
-      <c r="J92">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G92" s="73">
+        <v>1400</v>
+      </c>
+      <c r="H92" s="73">
+        <v>900</v>
+      </c>
+      <c r="I92" s="73">
+        <v>1600</v>
+      </c>
+      <c r="J92" s="73">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="73">
         <v>2500</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="73">
+        <v>5000</v>
+      </c>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73">
         <v>4000</v>
       </c>
-      <c r="E93">
-        <v>2400</v>
-      </c>
-      <c r="F93">
-        <v>10000</v>
-      </c>
-      <c r="G93">
-        <v>2000</v>
-      </c>
-      <c r="H93">
-        <v>900</v>
-      </c>
-      <c r="I93">
-        <v>5200</v>
-      </c>
-      <c r="J93">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G93" s="73">
+        <v>3400</v>
+      </c>
+      <c r="H93" s="73">
+        <v>1800</v>
+      </c>
+      <c r="I93" s="73">
+        <v>4200</v>
+      </c>
+      <c r="J93" s="73">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C94">
-        <v>1500</v>
-      </c>
-      <c r="D94">
-        <v>2000</v>
-      </c>
-      <c r="E94">
-        <v>960</v>
-      </c>
-      <c r="F94">
-        <v>4000</v>
-      </c>
-      <c r="G94">
-        <v>800</v>
-      </c>
-      <c r="H94">
-        <v>700</v>
-      </c>
-      <c r="I94">
+      <c r="C94" s="73">
+        <v>1000</v>
+      </c>
+      <c r="D94" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73">
+        <v>3000</v>
+      </c>
+      <c r="G94" s="73">
+        <v>1400</v>
+      </c>
+      <c r="H94" s="73">
+        <v>900</v>
+      </c>
+      <c r="I94" s="73">
         <v>2200</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="73">
         <v>2500</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C95">
-        <v>500</v>
-      </c>
-      <c r="D95">
+      <c r="C95" s="73">
         <v>1000</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>2000</v>
-      </c>
-      <c r="G95">
-        <v>400</v>
-      </c>
-      <c r="H95">
-        <v>200</v>
-      </c>
-      <c r="I95">
-        <v>1000</v>
-      </c>
-      <c r="J95">
+      <c r="D95" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E95" s="73">
+        <v>960</v>
+      </c>
+      <c r="F95" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G95" s="73">
+        <v>1400</v>
+      </c>
+      <c r="H95" s="73"/>
+      <c r="I95" s="73">
+        <v>1600</v>
+      </c>
+      <c r="J95" s="73">
         <v>1500</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="73">
+        <v>4500</v>
+      </c>
+      <c r="D96" s="73">
+        <v>6000</v>
+      </c>
+      <c r="E96" s="73">
+        <v>3360</v>
+      </c>
+      <c r="F96" s="73">
+        <v>12000</v>
+      </c>
+      <c r="G96" s="73">
+        <v>6400</v>
+      </c>
+      <c r="H96" s="73">
         <v>3000</v>
       </c>
-      <c r="D96">
-        <v>5000</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>12000</v>
-      </c>
-      <c r="G96">
-        <v>2600</v>
-      </c>
-      <c r="H96">
-        <v>1500</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I96" s="73">
+        <v>5400</v>
+      </c>
+      <c r="J96" s="73">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="73">
         <v>1000</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E97" s="73"/>
+      <c r="F97" s="73">
         <v>1000</v>
       </c>
-      <c r="E97">
-        <v>480</v>
-      </c>
-      <c r="F97">
-        <v>2000</v>
-      </c>
-      <c r="G97">
-        <v>800</v>
-      </c>
-      <c r="H97">
-        <v>300</v>
-      </c>
-      <c r="I97">
+      <c r="G97" s="73"/>
+      <c r="H97" s="73">
         <v>1000</v>
       </c>
-      <c r="J97">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I97" s="73">
+        <v>1400</v>
+      </c>
+      <c r="J97" s="73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C98">
-        <v>500</v>
-      </c>
-      <c r="D98">
+      <c r="C98" s="73">
         <v>1000</v>
       </c>
-      <c r="E98">
-        <v>480</v>
-      </c>
-      <c r="F98">
-        <v>4000</v>
-      </c>
-      <c r="G98">
-        <v>600</v>
-      </c>
-      <c r="H98">
-        <v>600</v>
-      </c>
-      <c r="I98">
+      <c r="D98" s="73">
+        <v>1000</v>
+      </c>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G98" s="73"/>
+      <c r="H98" s="73">
+        <v>1500</v>
+      </c>
+      <c r="I98" s="73">
         <v>1200</v>
       </c>
-      <c r="J98">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J98" s="73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C99">
-        <v>2000</v>
-      </c>
-      <c r="D99">
+      <c r="C99" s="73">
+        <v>3000</v>
+      </c>
+      <c r="D99" s="73">
         <v>4000</v>
       </c>
-      <c r="E99">
-        <v>960</v>
-      </c>
-      <c r="F99">
-        <v>8000</v>
-      </c>
-      <c r="G99">
-        <v>2000</v>
-      </c>
-      <c r="H99">
-        <v>1300</v>
-      </c>
-      <c r="I99">
-        <v>4000</v>
-      </c>
-      <c r="J99">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E99" s="73"/>
+      <c r="F99" s="73">
+        <v>5000</v>
+      </c>
+      <c r="G99" s="73">
+        <v>3400</v>
+      </c>
+      <c r="H99" s="73">
+        <v>1400</v>
+      </c>
+      <c r="I99" s="73">
+        <v>3000</v>
+      </c>
+      <c r="J99" s="73">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C100">
-        <v>1500</v>
-      </c>
-      <c r="D100">
-        <v>2000</v>
-      </c>
-      <c r="E100">
-        <v>960</v>
-      </c>
-      <c r="F100">
-        <v>2000</v>
-      </c>
-      <c r="G100">
+      <c r="C100" s="73">
+        <v>500</v>
+      </c>
+      <c r="D100" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73">
+        <v>3000</v>
+      </c>
+      <c r="G100" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H100" s="73">
+        <v>700</v>
+      </c>
+      <c r="I100" s="73"/>
+      <c r="J100" s="73">
         <v>1000</v>
       </c>
-      <c r="H100">
-        <v>700</v>
-      </c>
-      <c r="I100">
-        <v>2200</v>
-      </c>
-      <c r="J100">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="73">
+        <v>3000</v>
+      </c>
+      <c r="D101" s="73">
         <v>4000</v>
       </c>
-      <c r="D101">
-        <v>5000</v>
-      </c>
-      <c r="E101">
-        <v>480</v>
-      </c>
-      <c r="F101">
+      <c r="E101" s="73"/>
+      <c r="F101" s="73">
         <v>8000</v>
       </c>
-      <c r="G101">
-        <v>2000</v>
-      </c>
-      <c r="H101">
-        <v>2000</v>
-      </c>
-      <c r="I101">
-        <v>1600</v>
-      </c>
-      <c r="J101">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G101" s="73">
+        <v>3400</v>
+      </c>
+      <c r="H101" s="73">
+        <v>2000</v>
+      </c>
+      <c r="I101" s="73"/>
+      <c r="J101" s="73">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="73">
         <v>4500</v>
       </c>
-      <c r="D102">
-        <v>6000</v>
-      </c>
-      <c r="E102">
+      <c r="D102" s="73">
+        <v>7000</v>
+      </c>
+      <c r="E102" s="73">
         <v>480</v>
       </c>
-      <c r="F102">
-        <v>10000</v>
-      </c>
-      <c r="G102">
-        <v>2800</v>
-      </c>
-      <c r="H102">
-        <v>2200</v>
-      </c>
-      <c r="I102">
-        <v>8600</v>
-      </c>
-      <c r="J102">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F102" s="73">
+        <v>12000</v>
+      </c>
+      <c r="G102" s="73">
+        <v>4400</v>
+      </c>
+      <c r="H102" s="73">
+        <v>3200</v>
+      </c>
+      <c r="I102" s="73"/>
+      <c r="J102" s="73"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C103">
-        <v>1000</v>
-      </c>
-      <c r="D103">
-        <v>1000</v>
-      </c>
-      <c r="E103">
+      <c r="C103" s="73">
+        <v>500</v>
+      </c>
+      <c r="D103" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E103" s="73">
         <v>480</v>
       </c>
-      <c r="F103">
-        <v>2000</v>
-      </c>
-      <c r="G103">
-        <v>400</v>
-      </c>
-      <c r="H103">
-        <v>300</v>
-      </c>
-      <c r="I103">
-        <v>600</v>
-      </c>
-      <c r="J103">
+      <c r="F103" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G103" s="73">
+        <v>3000</v>
+      </c>
+      <c r="H103" s="73">
         <v>500</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I103" s="73">
+        <v>1600</v>
+      </c>
+      <c r="J103" s="73">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="73">
+        <v>2500</v>
+      </c>
+      <c r="D104" s="73">
+        <v>4000</v>
+      </c>
+      <c r="E104" s="73">
+        <v>1440</v>
+      </c>
+      <c r="F104" s="73">
+        <v>6000</v>
+      </c>
+      <c r="G104" s="73">
         <v>3000</v>
       </c>
-      <c r="D104">
-        <v>4000</v>
-      </c>
-      <c r="E104">
-        <v>1440</v>
-      </c>
-      <c r="F104">
-        <v>6000</v>
-      </c>
-      <c r="G104">
+      <c r="H104" s="73">
         <v>1800</v>
       </c>
-      <c r="H104">
-        <v>1200</v>
-      </c>
-      <c r="I104">
-        <v>400</v>
-      </c>
-      <c r="J104">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I104" s="73">
+        <v>3600</v>
+      </c>
+      <c r="J104" s="73">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C105">
-        <v>1500</v>
-      </c>
-      <c r="D105">
+      <c r="C105" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D105" s="73">
         <v>3000</v>
       </c>
-      <c r="E105">
-        <v>480</v>
-      </c>
-      <c r="F105">
-        <v>6000</v>
-      </c>
-      <c r="G105">
-        <v>1400</v>
-      </c>
-      <c r="H105">
-        <v>800</v>
-      </c>
-      <c r="I105">
-        <v>3600</v>
-      </c>
-      <c r="J105">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E105" s="73"/>
+      <c r="F105" s="73">
+        <v>4000</v>
+      </c>
+      <c r="G105" s="73">
+        <v>4000</v>
+      </c>
+      <c r="H105" s="73">
+        <v>1100</v>
+      </c>
+      <c r="I105" s="73">
+        <v>3200</v>
+      </c>
+      <c r="J105" s="73">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C106">
-        <v>2500</v>
-      </c>
-      <c r="D106">
+      <c r="C106" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D106" s="73">
         <v>3000</v>
       </c>
-      <c r="E106">
-        <v>1920</v>
-      </c>
-      <c r="F106">
-        <v>6000</v>
-      </c>
-      <c r="G106">
-        <v>1600</v>
-      </c>
-      <c r="H106">
-        <v>1200</v>
-      </c>
-      <c r="I106">
-        <v>3400</v>
-      </c>
-      <c r="J106">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E106" s="73">
+        <v>480</v>
+      </c>
+      <c r="F106" s="73">
+        <v>3000</v>
+      </c>
+      <c r="G106" s="73"/>
+      <c r="H106" s="73">
+        <v>1100</v>
+      </c>
+      <c r="I106" s="73">
+        <v>2600</v>
+      </c>
+      <c r="J106" s="73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="73">
         <v>1500</v>
       </c>
-      <c r="D107">
-        <v>2000</v>
-      </c>
-      <c r="E107">
-        <v>480</v>
-      </c>
-      <c r="F107">
-        <v>6000</v>
-      </c>
-      <c r="G107">
+      <c r="D107" s="73">
+        <v>3000</v>
+      </c>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G107" s="73"/>
+      <c r="H107" s="73">
+        <v>1100</v>
+      </c>
+      <c r="I107" s="73">
         <v>1200</v>
       </c>
-      <c r="H107">
-        <v>800</v>
-      </c>
-      <c r="I107">
-        <v>400</v>
-      </c>
-      <c r="J107">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J107" s="73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C108">
-        <v>2000</v>
-      </c>
-      <c r="D108">
+      <c r="C108" s="73">
+        <v>2500</v>
+      </c>
+      <c r="D108" s="73">
         <v>3000</v>
       </c>
-      <c r="E108">
-        <v>960</v>
-      </c>
-      <c r="F108">
-        <v>6000</v>
-      </c>
-      <c r="G108">
-        <v>1400</v>
-      </c>
-      <c r="H108">
-        <v>700</v>
-      </c>
-      <c r="I108">
-        <v>2400</v>
-      </c>
-      <c r="J108">
+      <c r="E108" s="73">
+        <v>480</v>
+      </c>
+      <c r="F108" s="73">
+        <v>5000</v>
+      </c>
+      <c r="G108" s="73">
         <v>2500</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H108" s="73">
+        <v>2000</v>
+      </c>
+      <c r="I108" s="73">
+        <v>2600</v>
+      </c>
+      <c r="J108" s="73">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>108</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C109">
-        <v>2000</v>
-      </c>
-      <c r="D109">
+      <c r="C109" s="73">
+        <v>2000</v>
+      </c>
+      <c r="D109" s="73">
         <v>3000</v>
       </c>
-      <c r="E109">
-        <v>1440</v>
-      </c>
-      <c r="F109">
+      <c r="E109" s="73"/>
+      <c r="F109" s="73">
         <v>4000</v>
       </c>
-      <c r="G109">
-        <v>800</v>
-      </c>
-      <c r="H109">
-        <v>1000</v>
-      </c>
-      <c r="I109">
-        <v>1400</v>
-      </c>
-      <c r="J109">
+      <c r="G109" s="73"/>
+      <c r="H109" s="73">
+        <v>1100</v>
+      </c>
+      <c r="I109" s="73">
+        <v>3400</v>
+      </c>
+      <c r="J109" s="73">
         <v>2500</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="73">
+        <v>5000</v>
+      </c>
+      <c r="D110" s="73">
         <v>6000</v>
       </c>
-      <c r="D110">
+      <c r="E110" s="73"/>
+      <c r="F110" s="73">
+        <v>12000</v>
+      </c>
+      <c r="G110" s="73">
+        <v>5000</v>
+      </c>
+      <c r="H110" s="73">
+        <v>5000</v>
+      </c>
+      <c r="I110" s="73">
+        <v>8000</v>
+      </c>
+      <c r="J110" s="73">
         <v>6000</v>
       </c>
-      <c r="E110">
-        <v>1440</v>
-      </c>
-      <c r="F110">
-        <v>10000</v>
-      </c>
-      <c r="G110">
-        <v>2800</v>
-      </c>
-      <c r="H110">
-        <v>3500</v>
-      </c>
-      <c r="I110">
-        <v>8000</v>
-      </c>
-      <c r="J110">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C111">
-        <v>10500</v>
-      </c>
-      <c r="D111">
-        <v>11000</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>42000</v>
-      </c>
-      <c r="G111">
-        <v>6200</v>
-      </c>
-      <c r="H111">
-        <v>7100</v>
-      </c>
-      <c r="I111">
-        <v>25000</v>
-      </c>
-      <c r="J111">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C111" s="73">
+        <v>20000</v>
+      </c>
+      <c r="D111" s="73">
+        <v>18000</v>
+      </c>
+      <c r="E111" s="73"/>
+      <c r="F111" s="73">
+        <v>34000</v>
+      </c>
+      <c r="G111" s="73">
+        <v>30000</v>
+      </c>
+      <c r="H111" s="73">
+        <v>11100</v>
+      </c>
+      <c r="I111" s="73">
+        <v>23000</v>
+      </c>
+      <c r="J111" s="73">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C112">
-        <v>3500</v>
-      </c>
-      <c r="D112">
-        <v>7000</v>
-      </c>
-      <c r="E112">
-        <v>1920</v>
-      </c>
-      <c r="F112">
-        <v>14000</v>
-      </c>
-      <c r="G112">
-        <v>2600</v>
-      </c>
-      <c r="H112">
-        <v>2400</v>
-      </c>
-      <c r="I112">
-        <v>10600</v>
-      </c>
-      <c r="J112">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C112" s="73">
+        <v>7500</v>
+      </c>
+      <c r="D112" s="73">
+        <v>6000</v>
+      </c>
+      <c r="E112" s="73"/>
+      <c r="F112" s="73">
+        <v>6000</v>
+      </c>
+      <c r="G112" s="73">
+        <v>6400</v>
+      </c>
+      <c r="H112" s="73">
+        <v>4500</v>
+      </c>
+      <c r="I112" s="73">
+        <v>7200</v>
+      </c>
+      <c r="J112" s="73">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C113">
-        <v>1000</v>
-      </c>
-      <c r="D113">
-        <v>2000</v>
-      </c>
-      <c r="E113">
-        <v>1440</v>
-      </c>
-      <c r="F113">
+      <c r="C113" s="73">
+        <v>1500</v>
+      </c>
+      <c r="D113" s="73">
+        <v>2000</v>
+      </c>
+      <c r="E113" s="73">
+        <v>480</v>
+      </c>
+      <c r="F113" s="73">
+        <v>2000</v>
+      </c>
+      <c r="G113" s="73">
         <v>4000</v>
       </c>
-      <c r="G113">
-        <v>600</v>
-      </c>
-      <c r="H113">
-        <v>800</v>
-      </c>
-      <c r="I113">
-        <v>600</v>
-      </c>
-      <c r="J113">
-        <v>1000</v>
+      <c r="H113" s="73">
+        <v>400</v>
+      </c>
+      <c r="I113" s="73">
+        <v>1800</v>
+      </c>
+      <c r="J113" s="73">
+        <v>3500</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="66"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="12"/>
     </row>
     <row r="116" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B116" s="14"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="56"/>
+      <c r="A128" s="48"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="56"/>
+      <c r="A129" s="48"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="56"/>
+      <c r="A130" s="48"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="56"/>
+      <c r="A131" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
